--- a/sample_data/visitas_1_2022.xlsx
+++ b/sample_data/visitas_1_2022.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44658</v>
+        <v>44564</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -480,12 +480,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Claudio Casemiro Herranz Echeverría</t>
+          <t>Cloe Mercader Pera</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20121384H</t>
+          <t>24542949V</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -494,12 +494,12 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44658</v>
+        <v>44570</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -508,12 +508,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Claudio Casemiro Herranz Echeverría</t>
+          <t>Cloe Mercader Pera</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20121384H</t>
+          <t>24542949V</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,12 +522,12 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44681</v>
+        <v>44586</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -536,12 +536,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Claudio Casemiro Herranz Echeverría</t>
+          <t>Cloe Mercader Pera</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20121384H</t>
+          <t>24542949V</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,12 +550,12 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44655</v>
+        <v>44587</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -564,12 +564,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Claudio Casemiro Herranz Echeverría</t>
+          <t>Cloe Mercader Pera</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20121384H</t>
+          <t>24542949V</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -578,12 +578,12 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44667</v>
+        <v>44591</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -592,12 +592,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Claudio Casemiro Herranz Echeverría</t>
+          <t>Cloe Mercader Pera</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20121384H</t>
+          <t>24542949V</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -606,12 +606,12 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44656</v>
+        <v>44574</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -620,12 +620,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Claudio Casemiro Herranz Echeverría</t>
+          <t>Cloe Mercader Pera</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20121384H</t>
+          <t>24542949V</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -634,12 +634,12 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44679</v>
+        <v>44564</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -648,12 +648,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Claudio Casemiro Herranz Echeverría</t>
+          <t>Cloe Mercader Pera</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20121384H</t>
+          <t>24542949V</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -662,26 +662,26 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44659</v>
+        <v>44579</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Oriol</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chucho Pallarès-Patiño</t>
+          <t>Cloe Mercader Pera</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>75675820R</t>
+          <t>24542949V</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44663</v>
+        <v>44568</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Oriol</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nicanor Ojeda Haro</t>
+          <t>Cloe Mercader Pera</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16548172V</t>
+          <t>24542949V</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -718,26 +718,26 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44660</v>
+        <v>44585</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Oriol</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nicanor Ojeda Haro</t>
+          <t>Cloe Mercader Pera</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16548172V</t>
+          <t>24542949V</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -746,26 +746,26 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44657</v>
+        <v>44588</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Oriol</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nicanor Ojeda Haro</t>
+          <t>Cloe Mercader Pera</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16548172V</t>
+          <t>24542949V</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -774,12 +774,12 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44672</v>
+        <v>44579</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -788,12 +788,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nicanor Ojeda Haro</t>
+          <t>Máximo Agustí Galiano</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16548172V</t>
+          <t>96746138L</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -802,12 +802,12 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44658</v>
+        <v>44589</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -816,12 +816,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nicanor Ojeda Haro</t>
+          <t>Máximo Agustí Galiano</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16548172V</t>
+          <t>96746138L</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -830,12 +830,12 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44672</v>
+        <v>44586</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -844,12 +844,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nicanor Ojeda Haro</t>
+          <t>Máximo Agustí Galiano</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16548172V</t>
+          <t>96746138L</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -858,12 +858,12 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44657</v>
+        <v>44588</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -872,12 +872,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nicanor Ojeda Haro</t>
+          <t>Máximo Agustí Galiano</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16548172V</t>
+          <t>96746138L</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -891,7 +891,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44664</v>
+        <v>44580</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -900,12 +900,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nicanor Ojeda Haro</t>
+          <t>Máximo Agustí Galiano</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16548172V</t>
+          <t>96746138L</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -914,26 +914,26 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44652</v>
+        <v>44562</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Marcos Borja González</t>
+          <t>Máximo Agustí Galiano</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>60196888T</t>
+          <t>96746138L</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -942,26 +942,26 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44675</v>
+        <v>44580</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Marcos Borja González</t>
+          <t>Máximo Agustí Galiano</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>60196888T</t>
+          <t>96746138L</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -970,26 +970,26 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44653</v>
+        <v>44567</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Marcos Borja González</t>
+          <t>Máximo Agustí Galiano</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>60196888T</t>
+          <t>96746138L</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -998,26 +998,26 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44679</v>
+        <v>44583</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Psicologo3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Marcos Borja González</t>
+          <t>Juliana Amalia Luís Cerro</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>60196888T</t>
+          <t>65416954D</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1026,26 +1026,26 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44672</v>
+        <v>44587</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Psicologo3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Marcos Borja González</t>
+          <t>Juliana Amalia Luís Cerro</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>60196888T</t>
+          <t>65416954D</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1054,7 +1054,707 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>76</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44575</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Psicologo3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Juliana Amalia Luís Cerro</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>65416954D</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Psicologo3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Juliana Amalia Luís Cerro</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>65416954D</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44584</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Psicologo3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Juliana Amalia Luís Cerro</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>65416954D</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44584</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Elena</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Lola Conesa Agustí</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>92116835H</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Elena</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Lola Conesa Agustí</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>92116835H</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44586</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Elena</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Lola Conesa Agustí</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>92116835H</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44564</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Elena</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Lola Conesa Agustí</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>92116835H</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Elena</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Lola Conesa Agustí</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>92116835H</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Elena</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Lola Conesa Agustí</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>92116835H</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Elena</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Lola Conesa Agustí</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>92116835H</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44579</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Elena</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Lola Conesa Agustí</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>92116835H</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44582</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Elena</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Lola Conesa Agustí</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>92116835H</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Oriol</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Agustina Vélez Blázquez</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>80825285L</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44567</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Oriol</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Agustina Vélez Blázquez</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>80825285L</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44572</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Oriol</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Agustina Vélez Blázquez</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>80825285L</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44575</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Oriol</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Agustina Vélez Blázquez</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>80825285L</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44578</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Oriol</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Agustina Vélez Blázquez</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>80825285L</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Oriol</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Agustina Vélez Blázquez</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>80825285L</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44563</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Oriol</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Agustina Vélez Blázquez</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>80825285L</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Elena</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Maximiano Canals-Aramburu</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>15318660Q</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Elena</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Maximiano Canals-Aramburu</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15318660Q</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Elena</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Maximiano Canals-Aramburu</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>15318660Q</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44575</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Oriol</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ciriaco de Acosta</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>74962378L</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44574</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Oriol</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ciriaco de Acosta</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>74962378L</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44563</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Oriol</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ciriaco de Acosta</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>74962378L</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>terapia</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
